--- a/Backup.xlsx
+++ b/Backup.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C1:C1048576"/>
@@ -682,6 +682,59 @@
         <v/>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>26/06/2023 10:34</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="6">
+        <f>D6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E6" s="6">
+        <f>B6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G6" s="6">
+        <f>F6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="6">
+        <f>H6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K6" s="6">
+        <f>J6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M6" s="6">
+        <f>L6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="N6" s="6">
+        <f>C6+E6+G6+I6+K6+M6</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D1:E1"/>

--- a/Backup.xlsx
+++ b/Backup.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" state="visible" r:id="rId1"/>
@@ -92,15 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -114,34 +108,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -149,7 +132,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,320 +470,130 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+      <selection activeCell="N6" sqref="A2:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17.5703125" customWidth="1" style="8" min="1" max="1"/>
-    <col width="9.140625" customWidth="1" style="5" min="2" max="2"/>
-    <col width="9.140625" customWidth="1" style="6" min="3" max="3"/>
+    <col width="17.5703125" customWidth="1" style="6" min="1" max="1"/>
+    <col width="9.140625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="9.140625" customWidth="1" style="9" min="3" max="3"/>
     <col width="11" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="B1" s="13" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>Magenta</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Cyan</t>
         </is>
       </c>
-      <c r="F1" s="15" t="inlineStr">
+      <c r="F1" s="13" t="inlineStr">
         <is>
           <t>Amarelo</t>
         </is>
       </c>
-      <c r="H1" s="16" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>Preto</t>
         </is>
       </c>
-      <c r="J1" s="17" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>Branco 1</t>
         </is>
       </c>
-      <c r="L1" s="17" t="inlineStr">
+      <c r="L1" s="11" t="inlineStr">
         <is>
           <t>Branco 2</t>
         </is>
       </c>
-      <c r="N1" s="18" t="inlineStr">
+      <c r="N1" s="7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="P1" s="9" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>45075.45</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="C2" s="6">
-        <f>B2 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="E2" s="6">
-        <f>D2 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G2" s="6">
-        <f>F2 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="I2" s="6">
-        <f>H2 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K2" s="6">
-        <f>J2 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="L2" s="5" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="M2" s="6">
-        <f>L2 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="N2" s="6">
-        <f>C2+E2+G2+I2+K2+M2</f>
-        <v/>
-      </c>
+      <c r="A2" s="2" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="9" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="9" t="n"/>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="9" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="9" t="n"/>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="9" t="n"/>
+      <c r="N2" s="9" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n">
-        <v>45083.33888888889</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="C3" s="6">
-        <f>B3 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="E3" s="6">
-        <f>D3 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G3" s="6">
-        <f>F3 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="I3" s="6">
-        <f>H3 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="K3" s="6">
-        <f>J3 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="L3" s="5" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M3" s="6">
-        <f>L3 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="N3" s="6">
-        <f>C3+E3+G3+I3+K3+M3</f>
-        <v/>
-      </c>
+      <c r="A3" s="5" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="9" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="9" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="9" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="9" t="n"/>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="9" t="n"/>
+      <c r="N3" s="9" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>45089.59166666667</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="C4" s="6">
-        <f>B4 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E4" s="6">
-        <f>D4 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="G4" s="6">
-        <f>F4 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I4" s="6">
-        <f>H4 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="K4" s="6">
-        <f>J4 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="M4" s="6">
-        <f>L4 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="N4" s="6">
-        <f>C4+E4+G4+I4+K4+M4</f>
-        <v/>
-      </c>
+      <c r="A4" s="2" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="9" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="9" t="n"/>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="9" t="n"/>
+      <c r="N4" s="9" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>21/06/2023 11:00</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C5" s="6">
-        <f>D5 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E5" s="6">
-        <f>B5 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G5" s="6">
-        <f>F5 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="I5" s="6">
-        <f>H5 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K5" s="6">
-        <f>J5 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M5" s="6">
-        <f>L5 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="N5" s="6">
-        <f>C5+E5+G5+I5+K5+M5</f>
-        <v/>
-      </c>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="9" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="9" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="9" t="n"/>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="9" t="n"/>
+      <c r="N5" s="9" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>26/06/2023 10:34</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C6" s="6">
-        <f>D6 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E6" s="6">
-        <f>B6 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G6" s="6">
-        <f>F6 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="6">
-        <f>H6 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="K6" s="6">
-        <f>J6 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M6" s="6">
-        <f>L6 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="N6" s="6">
-        <f>C6+E6+G6+I6+K6+M6</f>
-        <v/>
-      </c>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="9" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="9" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="9" t="n"/>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="9" t="n"/>
+      <c r="N6" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -745,6 +605,6 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/Backup.xlsx
+++ b/Backup.xlsx
@@ -528,21 +528,62 @@
       <c r="P1" s="9" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="9" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="9" t="n"/>
-      <c r="L2" s="3" t="n"/>
-      <c r="M2" s="9" t="n"/>
-      <c r="N2" s="9" t="n"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>03/07/2023 17:23</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C2" s="9">
+        <f>B2 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E2" s="9">
+        <f>D2 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2" s="9">
+        <f>F2 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2" s="9">
+        <f>H2 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K2" s="9">
+        <f>J2 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9">
+        <f>L2 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="N2" s="9">
+        <f>C2+E2+G2+I2+K2+M2</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="9" t="n"/>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="9" t="n"/>
       <c r="F3" s="3" t="n"/>
@@ -557,6 +598,8 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="9" t="n"/>
       <c r="D4" s="3" t="n"/>
       <c r="E4" s="9" t="n"/>
       <c r="F4" s="3" t="n"/>
@@ -570,6 +613,8 @@
       <c r="N4" s="9" t="n"/>
     </row>
     <row r="5">
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="9" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="9" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -583,6 +628,8 @@
       <c r="N5" s="9" t="n"/>
     </row>
     <row r="6">
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="9" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="9" t="n"/>
       <c r="F6" s="3" t="n"/>

--- a/Backup.xlsx
+++ b/Backup.xlsx
@@ -581,20 +581,57 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="9" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="9" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="9" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="9" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="9" t="n"/>
-      <c r="L3" s="3" t="n"/>
-      <c r="M3" s="9" t="n"/>
-      <c r="N3" s="9" t="n"/>
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>10/07/2023 15:31</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="9">
+        <f>B3 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="9">
+        <f>F3 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I3" s="9">
+        <f>H3 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K3" s="9">
+        <f>J3 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M3" s="9">
+        <f>L3 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="N3" s="9">
+        <f>C3+E3+G3+I3+K3+M3</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n"/>

--- a/Backup.xlsx
+++ b/Backup.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -80,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -88,13 +88,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -102,31 +141,29 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,18 +507,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="A2:N6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17.5703125" customWidth="1" style="6" min="1" max="1"/>
-    <col width="9.140625" customWidth="1" style="3" min="2" max="2"/>
-    <col width="9.140625" customWidth="1" style="9" min="3" max="3"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="17.5703125" customWidth="1" style="9" min="1" max="1"/>
+    <col width="9.140625" customWidth="1" style="5" min="2" max="2"/>
+    <col width="9.140625" customWidth="1" style="6" min="3" max="3"/>
+    <col width="11" customWidth="1" style="7" min="14" max="14"/>
+    <col width="14.7109375" customWidth="1" style="7" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,194 +528,295 @@
           <t>Data</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>Magenta</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="C1" s="17" t="n"/>
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Cyan</t>
         </is>
       </c>
-      <c r="F1" s="13" t="inlineStr">
+      <c r="E1" s="17" t="n"/>
+      <c r="F1" s="16" t="inlineStr">
         <is>
           <t>Amarelo</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="G1" s="17" t="n"/>
+      <c r="H1" s="13" t="inlineStr">
         <is>
           <t>Preto</t>
         </is>
       </c>
-      <c r="J1" s="11" t="inlineStr">
+      <c r="I1" s="17" t="n"/>
+      <c r="J1" s="14" t="inlineStr">
         <is>
           <t>Branco 1</t>
         </is>
       </c>
-      <c r="L1" s="11" t="inlineStr">
+      <c r="K1" s="17" t="n"/>
+      <c r="L1" s="14" t="inlineStr">
         <is>
           <t>Branco 2</t>
         </is>
       </c>
-      <c r="N1" s="7" t="inlineStr">
+      <c r="M1" s="17" t="n"/>
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="P1" s="9" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Gasto Semanal</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>03/07/2023 17:23</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>04/09/2023 15:05</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>162</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>144</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>582</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>180</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <v>354</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>11/09/2023 15:01</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>156</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>258</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>132</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>570</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>0.29</v>
       </c>
-      <c r="C2" s="9">
-        <f>B2 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E2" s="9">
-        <f>D2 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G2" s="9">
-        <f>F2 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I2" s="9">
-        <f>H2 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="K2" s="9">
-        <f>J2 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9">
-        <f>L2 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="N2" s="9">
-        <f>C2+E2+G2+I2+K2+M2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>10/07/2023 15:31</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C3" s="9">
-        <f>B3 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E3" s="9">
-        <f>D3 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G3" s="9">
-        <f>F3 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="I3" s="9">
-        <f>H3 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K3" s="9">
-        <f>J3 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="M3" s="9">
-        <f>L3 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="N3" s="9">
-        <f>C3+E3+G3+I3+K3+M3</f>
-        <v/>
-      </c>
+      <c r="K3" s="6" t="n">
+        <v>174</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>348</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>1638</v>
+      </c>
+      <c r="O3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="9" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="9" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="9" t="n"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="9" t="n"/>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="9" t="n"/>
-      <c r="L4" s="3" t="n"/>
-      <c r="M4" s="9" t="n"/>
-      <c r="N4" s="9" t="n"/>
+      <c r="A4" s="4" t="n"/>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="6" t="n"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="6" t="n"/>
+      <c r="L4" s="5" t="n"/>
+      <c r="M4" s="6" t="n"/>
+      <c r="N4" s="6" t="n"/>
+      <c r="O4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="9" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="9" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="9" t="n"/>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="9" t="n"/>
-      <c r="L5" s="3" t="n"/>
-      <c r="M5" s="9" t="n"/>
-      <c r="N5" s="9" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="6" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="6" t="n"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="6" t="n"/>
+      <c r="L5" s="5" t="n"/>
+      <c r="M5" s="6" t="n"/>
+      <c r="N5" s="6" t="n"/>
+      <c r="O5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="9" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="9" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="9" t="n"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="9" t="n"/>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="9" t="n"/>
-      <c r="L6" s="3" t="n"/>
-      <c r="M6" s="9" t="n"/>
-      <c r="N6" s="9" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="6" t="n"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="6" t="n"/>
+      <c r="L6" s="5" t="n"/>
+      <c r="M6" s="6" t="n"/>
+      <c r="N6" s="6" t="n"/>
+      <c r="O6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="6" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="5" t="n"/>
+      <c r="I7" s="8" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="6" t="n"/>
+      <c r="L7" s="5" t="n"/>
+      <c r="M7" s="6" t="n"/>
+      <c r="N7" s="6" t="n"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="6" t="n"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="6" t="n"/>
+      <c r="L8" s="5" t="n"/>
+      <c r="M8" s="6" t="n"/>
+      <c r="N8" s="6" t="n"/>
+      <c r="O8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="6" t="n"/>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="5" t="n"/>
+      <c r="I9" s="6" t="n"/>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="6" t="n"/>
+      <c r="L9" s="5" t="n"/>
+      <c r="M9" s="6" t="n"/>
+      <c r="N9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="6" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="5" t="n"/>
+      <c r="I10" s="6" t="n"/>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="6" t="n"/>
+      <c r="L10" s="5" t="n"/>
+      <c r="M10" s="6" t="n"/>
+      <c r="N10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="6" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="5" t="n"/>
+      <c r="I11" s="6" t="n"/>
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="6" t="n"/>
+      <c r="L11" s="5" t="n"/>
+      <c r="M11" s="6" t="n"/>
+      <c r="N11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="6" t="n"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="6" t="n"/>
+      <c r="L12" s="5" t="n"/>
+      <c r="M12" s="6" t="n"/>
+      <c r="N12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="5" t="n"/>
+      <c r="I13" s="6" t="n"/>
+      <c r="J13" s="5" t="n"/>
+      <c r="K13" s="6" t="n"/>
+      <c r="L13" s="5" t="n"/>
+      <c r="M13" s="6" t="n"/>
+      <c r="N13" s="6" t="n"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="6" t="n"/>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="5" t="n"/>
+      <c r="I14" s="6" t="n"/>
+      <c r="J14" s="5" t="n"/>
+      <c r="K14" s="6" t="n"/>
+      <c r="L14" s="5" t="n"/>
+      <c r="M14" s="6" t="n"/>
+      <c r="N14" s="6" t="n"/>
+      <c r="Q14" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
